--- a/biology/Botanique/Incendie_de_la_forêt_des_Landes_de_1949/Incendie_de_la_forêt_des_Landes_de_1949.xlsx
+++ b/biology/Botanique/Incendie_de_la_forêt_des_Landes_de_1949/Incendie_de_la_forêt_des_Landes_de_1949.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incendie_de_la_for%C3%AAt_des_Landes_de_1949</t>
+          <t>Incendie_de_la_forêt_des_Landes_de_1949</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du 19 au 25 août 1949, le massif forestier des Landes de Gascogne est victime d'un grand feu de forêt qui ravage 52 000 hectares dont 25 000 de bois, et entraîne la mort de 82 personnes[1],[2]. Les communes touchées sont Cestas, Saucats, Marcheprime et Mios, en Gironde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du 19 au 25 août 1949, le massif forestier des Landes de Gascogne est victime d'un grand feu de forêt qui ravage 52 000 hectares dont 25 000 de bois, et entraîne la mort de 82 personnes,. Les communes touchées sont Cestas, Saucats, Marcheprime et Mios, en Gironde.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Incendie_de_la_for%C3%AAt_des_Landes_de_1949</t>
+          <t>Incendie_de_la_forêt_des_Landes_de_1949</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>État de la forêt en 1949</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin de la Seconde Guerre mondiale, le massif forestier est en piteux état : non entretenus, les coupe-feu sont embroussaillés et inaccessibles. Les moyens de lutte contre le feu sont, en outre, peu efficaces à cette époque. Après trois étés caniculaires, la région souffre de sécheresse et sa forêt de pins, particulièrement inflammable, a déjà perdu 100 000 ha au 18 août.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Incendie_de_la_for%C3%AAt_des_Landes_de_1949</t>
+          <t>Incendie_de_la_forêt_des_Landes_de_1949</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Déroulement de la tragédie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 19 août, vers 13 heures, le feu prend au lieu-dit Le Murat, dans la commune de Saucats. L'enquête conclut qu'il serait parti de la cabane de la scierie Pioton, où un gardien fumait sur son lit.
 Les premiers sauveteurs, armés de branches de pin, ne peuvent lutter contre la propagation du feu qui s'étend rapidement dans les pins, les landes et les chaumes.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Incendie_de_la_for%C3%AAt_des_Landes_de_1949</t>
+          <t>Incendie_de_la_forêt_des_Landes_de_1949</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Bilan</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le feu de forêt de 1949 est l'incendie le plus meurtrier qu'ait connu la France. Il a fait 82 victimes (des fonctionnaires des Eaux et Forêts encadrant des pompiers, des bénévoles — dont le maire de Saucats, Roger Giraudeau[3] — et 23 militaires du 33e régiment d'artillerie de Châtellerault[4]). Au cours de l'année 1949, le massif landais totalise une dévastation par le feu de 131 300 hectares, chiffre record jamais dépassé. Lors des incendies de 2022, la surface ravagée du même massif atteint 32 000 hectares. Pour mémoire, le massif des Landes totalise environ 1,4 million d'hectares[5].
-Le 24 août est déclaré journée de deuil national à la suite de la catastrophe[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le feu de forêt de 1949 est l'incendie le plus meurtrier qu'ait connu la France. Il a fait 82 victimes (des fonctionnaires des Eaux et Forêts encadrant des pompiers, des bénévoles — dont le maire de Saucats, Roger Giraudeau — et 23 militaires du 33e régiment d'artillerie de Châtellerault). Au cours de l'année 1949, le massif landais totalise une dévastation par le feu de 131 300 hectares, chiffre record jamais dépassé. Lors des incendies de 2022, la surface ravagée du même massif atteint 32 000 hectares. Pour mémoire, le massif des Landes totalise environ 1,4 million d'hectares.
+Le 24 août est déclaré journée de deuil national à la suite de la catastrophe.
 </t>
         </is>
       </c>
